--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -1,26 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2dce4d46add7dbb/Documentos/informatica II/Horario/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_AD4D2F04E46CFB4ACB3E203DAD96F81E683EDF12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD9EB73-BD65-4CD4-B095-166FBE552E43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+  <si>
+    <t>6am</t>
+  </si>
+  <si>
+    <t>8am</t>
+  </si>
+  <si>
+    <t>10am</t>
+  </si>
+  <si>
+    <t>12m</t>
+  </si>
+  <si>
+    <t>2pm</t>
+  </si>
+  <si>
+    <t>4pm</t>
+  </si>
+  <si>
+    <t>6pm</t>
+  </si>
+  <si>
+    <t>8pm</t>
+  </si>
+  <si>
+    <t>10pm</t>
+  </si>
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>martes</t>
+  </si>
+  <si>
+    <t>miércoles</t>
+  </si>
+  <si>
+    <t>jueves</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>sábado</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>Gimnasio</t>
+  </si>
+  <si>
+    <t>Viajar a Medellin</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>Regresar a casa</t>
+  </si>
+  <si>
+    <t>Laboratorio</t>
+  </si>
+  <si>
+    <t>Salir en Cicla</t>
+  </si>
+  <si>
+    <t>Salir</t>
+  </si>
+  <si>
+    <t>Misa</t>
+  </si>
+  <si>
+    <t>Repasar</t>
+  </si>
+  <si>
+    <t>Organizar casa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,19 +128,101 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -49,8 +231,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -68,10 +289,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Azul">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -79,34 +304,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="17406D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="DBEFF9"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="0F6FC6"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="009DD9"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="0BD0D9"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="10CF9B"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="7CCA62"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="A5C249"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="F49100"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="85DFD0"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -330,13 +555,661 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3">
+        <v>44970</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44971</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44972</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44973</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44974</v>
+      </c>
+      <c r="G2" s="3">
+        <v>44975</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44976</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44977</v>
+      </c>
+      <c r="J2" s="3">
+        <v>44978</v>
+      </c>
+      <c r="K2" s="3">
+        <v>44979</v>
+      </c>
+      <c r="L2" s="3">
+        <v>44980</v>
+      </c>
+      <c r="M2" s="3">
+        <v>44981</v>
+      </c>
+      <c r="N2" s="3">
+        <v>44982</v>
+      </c>
+      <c r="O2" s="3">
+        <v>44983</v>
+      </c>
+      <c r="P2" s="3">
+        <v>44984</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>44985</v>
+      </c>
+      <c r="R2" s="3">
+        <v>44986</v>
+      </c>
+      <c r="S2" s="3">
+        <v>44987</v>
+      </c>
+      <c r="T2" s="3">
+        <v>44988</v>
+      </c>
+      <c r="U2" s="3">
+        <v>44989</v>
+      </c>
+      <c r="V2" s="3">
+        <v>44990</v>
+      </c>
+      <c r="W2" s="3">
+        <v>44991</v>
+      </c>
+      <c r="X2" s="3">
+        <v>44992</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>44993</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>44994</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="14"/>
+      <c r="S6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="7"/>
+      <c r="S9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="7"/>
+      <c r="X9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H4:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2dce4d46add7dbb/Documentos/informatica II/Horario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="11_AD4D2F04E46CFB4ACB3E203DAD96F81E683EDF12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD9EB73-BD65-4CD4-B095-166FBE552E43}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="11_AD4D2F04E46CFB4ACB3E203DAD96F81E683EDF12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C75E8364-C626-46E8-865E-56187AF4559B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="26">
   <si>
     <t>6am</t>
   </si>
@@ -252,10 +252,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -264,10 +264,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -287,10 +287,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,7 +555,7 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,15 +764,8 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
@@ -848,10 +837,10 @@
       <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="7"/>
       <c r="F5" s="11" t="s">
         <v>24</v>
@@ -862,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="7"/>
@@ -875,7 +864,7 @@
         <v>24</v>
       </c>
       <c r="Q5" s="7"/>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="S5" s="7"/>
@@ -888,7 +877,7 @@
         <v>24</v>
       </c>
       <c r="X5" s="7"/>
-      <c r="Y5" s="13" t="s">
+      <c r="Y5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="Z5" s="7"/>
@@ -903,11 +892,11 @@
       <c r="B6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="12"/>
@@ -916,11 +905,11 @@
       <c r="I6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="10"/>
+      <c r="L6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="12"/>
@@ -929,11 +918,11 @@
       <c r="P6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="14"/>
-      <c r="S6" s="9" t="s">
+      <c r="R6" s="10"/>
+      <c r="S6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="T6" s="12"/>
@@ -942,11 +931,11 @@
       <c r="W6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="9" t="s">
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="AA6" s="12"/>
@@ -956,44 +945,42 @@
         <v>4</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="10"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="10"/>
+      <c r="S7" s="14"/>
       <c r="T7" s="8" t="s">
         <v>25</v>
       </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="12"/>
-      <c r="X7" s="10"/>
+      <c r="X7" s="14"/>
       <c r="Y7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="10"/>
+      <c r="Z7" s="14"/>
       <c r="AA7" s="8" t="s">
         <v>25</v>
       </c>
@@ -1006,9 +993,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
         <v>22</v>
@@ -1065,7 +1050,7 @@
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="8" t="s">
@@ -1148,9 +1133,6 @@
         <v>8</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1184,29 +1166,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="V4:V6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="O4:O6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Z6:Z7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
